--- a/TestData/AttendeeAdminUpdated.xlsx
+++ b/TestData/AttendeeAdminUpdated.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumJava\SeleniumFrameworkBackUp\TrustTaxHybridFramework\Workingsolution\TrustTaxHybridFramework\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20052" windowHeight="7932"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="18480" windowHeight="5268"/>
   </bookViews>
   <sheets>
     <sheet name="SmokeSheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -34,13 +39,19 @@
   </si>
   <si>
     <t>password2</t>
+  </si>
+  <si>
+    <t>nareshcsit@gmail.com</t>
+  </si>
+  <si>
+    <t>Shiridi@34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +118,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +204,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +256,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,34 +449,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -430,28 +483,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -467,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -475,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -483,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -491,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -499,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
